--- a/NFL-Paper-1-our-new-rework-attempt/2017-new-data.xlsx
+++ b/NFL-Paper-1-our-new-rework-attempt/2017-new-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/897de2ccfcc020ef/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean1\OneDrive\Desktop\School\DS 340W\ds340wproject-main\NFL-Paper-1-our-new-rework-attempt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8773666A-D6F7-425F-8E74-058AC8EF5E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A1306-AFA4-4740-975E-A0885B3B992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D98A5B-C61A-4EC1-8C19-B61D9468FE6C}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{44D98A5B-C61A-4EC1-8C19-B61D9468FE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="437">
   <si>
     <t>Misc</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Yds</t>
   </si>
   <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -1325,6 +1322,15 @@
   </si>
   <si>
     <t>Chad Kelly</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>RUTD</t>
+  </si>
+  <si>
+    <t>RECTD</t>
   </si>
 </sst>
 </file>
@@ -2197,41 +2203,41 @@
   <dimension ref="A1:AC255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2272,7 +2278,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2322,10 +2328,10 @@
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>19</v>
@@ -2334,32 +2340,32 @@
         <v>20</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>21</v>
+        <v>435</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2367,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>21</v>
@@ -2440,13 +2446,13 @@
         <v>102.5</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2454,13 +2460,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>23</v>
@@ -2523,13 +2529,13 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2537,13 +2543,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>21</v>
@@ -2610,13 +2616,13 @@
         <v>18.5</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2624,13 +2630,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>22</v>
@@ -2695,13 +2701,13 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2709,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="2">
         <v>22</v>
@@ -2778,13 +2784,13 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2792,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="2">
         <v>21</v>
@@ -2867,13 +2873,13 @@
         <v>21.5</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2881,13 +2887,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2">
         <v>22</v>
@@ -2952,13 +2958,13 @@
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2966,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
         <v>21</v>
@@ -3037,13 +3043,13 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3051,13 +3057,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2">
         <v>21</v>
@@ -3120,13 +3126,13 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3134,13 +3140,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>21</v>
@@ -3205,13 +3211,13 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3219,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="2">
         <v>21</v>
@@ -3292,13 +3298,13 @@
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3306,13 +3312,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>21</v>
@@ -3377,13 +3383,13 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3391,13 +3397,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="2">
         <v>22</v>
@@ -3464,13 +3470,13 @@
         <v>59</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -3478,13 +3484,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2">
         <v>21</v>
@@ -3551,13 +3557,13 @@
         <v>29</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3565,13 +3571,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2">
         <v>21</v>
@@ -3638,13 +3644,13 @@
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3652,13 +3658,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2">
         <v>21</v>
@@ -3727,13 +3733,13 @@
         <v>6</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3741,13 +3747,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2">
         <v>22</v>
@@ -3816,13 +3822,13 @@
         <v>42</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -3830,13 +3836,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2">
         <v>21</v>
@@ -3903,13 +3909,13 @@
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3917,13 +3923,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>22</v>
@@ -3986,13 +3992,13 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4000,13 +4006,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F22" s="2">
         <v>25</v>
@@ -4069,13 +4075,13 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -4083,13 +4089,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2">
         <v>22</v>
@@ -4158,13 +4164,13 @@
         <v>11</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -4172,13 +4178,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
@@ -4245,13 +4251,13 @@
         <v>19.5</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4259,13 +4265,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2">
         <v>23</v>
@@ -4330,13 +4336,13 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4344,13 +4350,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2">
         <v>22</v>
@@ -4417,13 +4423,13 @@
       </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4431,13 +4437,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2">
         <v>21</v>
@@ -4506,13 +4512,13 @@
         <v>5.5</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4520,13 +4526,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2">
         <v>21</v>
@@ -4593,13 +4599,13 @@
         <v>20.5</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4607,13 +4613,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2">
         <v>22</v>
@@ -4682,13 +4688,13 @@
         <v>3</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4696,13 +4702,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
         <v>22</v>
@@ -4769,13 +4775,13 @@
         <v>11.5</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4783,13 +4789,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2">
         <v>21</v>
@@ -4854,13 +4860,13 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4868,13 +4874,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2">
         <v>22</v>
@@ -4943,13 +4949,13 @@
         <v>108</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4957,13 +4963,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2">
         <v>23</v>
@@ -5028,13 +5034,13 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -5042,13 +5048,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2">
         <v>23</v>
@@ -5111,13 +5117,13 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -5125,13 +5131,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2">
         <v>22</v>
@@ -5200,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -5214,13 +5220,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2">
         <v>21</v>
@@ -5283,13 +5289,13 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -5297,13 +5303,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F37" s="2">
         <v>21</v>
@@ -5368,13 +5374,13 @@
         <v>3</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -5382,13 +5388,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2">
         <v>21</v>
@@ -5457,13 +5463,13 @@
         <v>9.5</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -5471,13 +5477,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2">
         <v>22</v>
@@ -5542,13 +5548,13 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -5556,10 +5562,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -5625,13 +5631,13 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -5639,13 +5645,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2">
         <v>24</v>
@@ -5714,13 +5720,13 @@
         <v>4.5</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5728,13 +5734,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2">
         <v>21</v>
@@ -5799,13 +5805,13 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -5813,13 +5819,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2">
         <v>22</v>
@@ -5884,13 +5890,13 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -5898,13 +5904,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2">
         <v>20</v>
@@ -5973,13 +5979,13 @@
         <v>1</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -5987,13 +5993,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2">
         <v>21</v>
@@ -6060,13 +6066,13 @@
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6074,13 +6080,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2">
         <v>23</v>
@@ -6145,13 +6151,13 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6159,13 +6165,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2">
         <v>22</v>
@@ -6230,11 +6236,11 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6242,13 +6248,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2">
         <v>21</v>
@@ -6315,13 +6321,13 @@
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6329,13 +6335,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="2">
         <v>22</v>
@@ -6404,13 +6410,13 @@
         <v>19.5</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6418,13 +6424,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2">
         <v>21</v>
@@ -6489,13 +6495,13 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -6503,13 +6509,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2">
         <v>23</v>
@@ -6576,13 +6582,13 @@
         <v>6</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6590,13 +6596,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2">
         <v>22</v>
@@ -6663,13 +6669,13 @@
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6677,13 +6683,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2">
         <v>22</v>
@@ -6750,13 +6756,13 @@
         <v>26.5</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -6764,13 +6770,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2">
         <v>21</v>
@@ -6833,13 +6839,13 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6847,13 +6853,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2">
         <v>21</v>
@@ -6918,13 +6924,13 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -6932,13 +6938,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2">
         <v>21</v>
@@ -7005,13 +7011,13 @@
         <v>1</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -7019,13 +7025,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2">
         <v>23</v>
@@ -7092,13 +7098,13 @@
         <v>19</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -7106,13 +7112,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2">
         <v>23</v>
@@ -7177,13 +7183,13 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -7191,13 +7197,13 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2">
         <v>22</v>
@@ -7266,13 +7272,13 @@
         <v>6.5</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -7280,13 +7286,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F60" s="2">
         <v>22</v>
@@ -7349,13 +7355,13 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -7363,13 +7369,13 @@
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" s="2">
         <v>23</v>
@@ -7436,11 +7442,11 @@
         <v>16.5</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -7448,13 +7454,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2">
         <v>22</v>
@@ -7521,13 +7527,13 @@
       </c>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -7535,13 +7541,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2">
         <v>22</v>
@@ -7610,13 +7616,13 @@
         <v>3</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -7624,13 +7630,13 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2">
         <v>20</v>
@@ -7695,13 +7701,13 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -7709,10 +7715,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>17</v>
@@ -7780,13 +7786,13 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -7794,10 +7800,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
@@ -7865,13 +7871,13 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -7879,13 +7885,13 @@
         <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2">
         <v>23</v>
@@ -7952,13 +7958,13 @@
         <v>27.5</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -7966,13 +7972,13 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2">
         <v>22</v>
@@ -8039,13 +8045,13 @@
       </c>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -8053,13 +8059,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2">
         <v>22</v>
@@ -8122,13 +8128,13 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -8136,13 +8142,13 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2">
         <v>22</v>
@@ -8209,13 +8215,13 @@
         <v>25</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -8223,13 +8229,13 @@
         <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2">
         <v>24</v>
@@ -8294,11 +8300,11 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -8306,13 +8312,13 @@
         <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72" s="2">
         <v>23</v>
@@ -8377,13 +8383,13 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -8391,10 +8397,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>17</v>
@@ -8460,13 +8466,13 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -8474,13 +8480,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2">
         <v>22</v>
@@ -8545,13 +8551,13 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -8559,13 +8565,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2">
         <v>22</v>
@@ -8632,13 +8638,13 @@
         <v>10.5</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -8646,13 +8652,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" s="2">
         <v>23</v>
@@ -8719,13 +8725,13 @@
         <v>11</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -8733,13 +8739,13 @@
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2">
         <v>23</v>
@@ -8808,13 +8814,13 @@
         <v>2</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8822,13 +8828,13 @@
         <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2">
         <v>22</v>
@@ -8897,13 +8903,13 @@
         <v>10.5</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -8911,13 +8917,13 @@
         <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F79" s="2">
         <v>22</v>
@@ -8984,13 +8990,13 @@
         <v>1.5</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -8998,13 +9004,13 @@
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2">
         <v>23</v>
@@ -9071,13 +9077,13 @@
         <v>2</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -9085,13 +9091,13 @@
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2">
         <v>23</v>
@@ -9154,13 +9160,13 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -9168,13 +9174,13 @@
         <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" s="2">
         <v>23</v>
@@ -9243,13 +9249,13 @@
         <v>11</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -9257,13 +9263,13 @@
         <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -9330,13 +9336,13 @@
       </c>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -9344,13 +9350,13 @@
         <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2">
         <v>22</v>
@@ -9383,13 +9389,13 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -9397,13 +9403,13 @@
         <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2">
         <v>23</v>
@@ -9470,11 +9476,11 @@
         <v>3.5</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -9482,13 +9488,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2">
         <v>21</v>
@@ -9553,13 +9559,13 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -9567,13 +9573,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2">
         <v>23</v>
@@ -9606,13 +9612,13 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -9620,13 +9626,13 @@
         <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" s="2">
         <v>22</v>
@@ -9689,13 +9695,13 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -9703,13 +9709,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" s="2">
         <v>22</v>
@@ -9772,13 +9778,13 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3</v>
       </c>
@@ -9786,13 +9792,13 @@
         <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2">
         <v>22</v>
@@ -9857,13 +9863,13 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -9871,13 +9877,13 @@
         <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" s="2">
         <v>21</v>
@@ -9940,13 +9946,13 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -9954,13 +9960,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F92" s="2">
         <v>22</v>
@@ -10029,13 +10035,13 @@
         <v>1</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -10043,13 +10049,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2">
         <v>21</v>
@@ -10118,13 +10124,13 @@
         <v>1</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -10132,13 +10138,13 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2">
         <v>22</v>
@@ -10207,13 +10213,13 @@
         <v>9.5</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -10221,13 +10227,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2">
         <v>22</v>
@@ -10294,13 +10300,13 @@
         <v>2.5</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -10308,13 +10314,13 @@
         <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2">
         <v>22</v>
@@ -10383,13 +10389,13 @@
         <v>2</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -10397,13 +10403,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2">
         <v>21</v>
@@ -10468,13 +10474,13 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -10482,13 +10488,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" s="2">
         <v>23</v>
@@ -10551,13 +10557,13 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -10565,13 +10571,13 @@
         <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2">
         <v>23</v>
@@ -10636,13 +10642,13 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -10650,13 +10656,13 @@
         <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2">
         <v>22</v>
@@ -10719,11 +10725,11 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC100" s="2"/>
     </row>
-    <row r="101" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -10731,13 +10737,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2">
         <v>22</v>
@@ -10806,13 +10812,13 @@
         <v>2</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -10820,13 +10826,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2">
         <v>22</v>
@@ -10889,13 +10895,13 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC102" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -10903,13 +10909,13 @@
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2">
         <v>22</v>
@@ -10974,11 +10980,11 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -10986,13 +10992,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F104" s="2">
         <v>22</v>
@@ -11061,13 +11067,13 @@
         <v>2</v>
       </c>
       <c r="AB104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC104" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -11075,13 +11081,13 @@
         <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2">
         <v>22</v>
@@ -11148,13 +11154,13 @@
         <v>77</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -11162,13 +11168,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" s="2">
         <v>23</v>
@@ -11231,13 +11237,13 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -11245,13 +11251,13 @@
         <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2">
         <v>22</v>
@@ -11316,13 +11322,13 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC107" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -11330,13 +11336,13 @@
         <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2">
         <v>23</v>
@@ -11401,13 +11407,13 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
       <c r="AB108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC108" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -11415,13 +11421,13 @@
         <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F109" s="2">
         <v>22</v>
@@ -11488,13 +11494,13 @@
         <v>1</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>4</v>
       </c>
@@ -11502,13 +11508,13 @@
         <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2">
         <v>24</v>
@@ -11577,13 +11583,13 @@
         <v>2.5</v>
       </c>
       <c r="AB110" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC110" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -11591,13 +11597,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2">
         <v>23</v>
@@ -11664,13 +11670,13 @@
         <v>7.5</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4</v>
       </c>
@@ -11678,13 +11684,13 @@
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F112" s="2">
         <v>23</v>
@@ -11749,13 +11755,13 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -11763,13 +11769,13 @@
         <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2">
         <v>22</v>
@@ -11836,13 +11842,13 @@
       </c>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC113" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -11850,13 +11856,13 @@
         <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2">
         <v>23</v>
@@ -11925,13 +11931,13 @@
         <v>2</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -11939,13 +11945,13 @@
         <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2">
         <v>23</v>
@@ -12014,13 +12020,13 @@
         <v>5.5</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>4</v>
       </c>
@@ -12028,13 +12034,13 @@
         <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F116" s="2">
         <v>21</v>
@@ -12099,13 +12105,13 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>4</v>
       </c>
@@ -12113,10 +12119,10 @@
         <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -12152,13 +12158,13 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC117" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>4</v>
       </c>
@@ -12166,13 +12172,13 @@
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F118" s="2">
         <v>22</v>
@@ -12239,13 +12245,13 @@
         <v>32</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -12253,13 +12259,13 @@
         <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F119" s="2">
         <v>22</v>
@@ -12324,13 +12330,13 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC119" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -12338,13 +12344,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2">
         <v>23</v>
@@ -12409,13 +12415,13 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC120" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -12423,13 +12429,13 @@
         <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F121" s="2">
         <v>22</v>
@@ -12494,11 +12500,11 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -12506,13 +12512,13 @@
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F122" s="2">
         <v>22</v>
@@ -12577,13 +12583,13 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC122" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -12591,13 +12597,13 @@
         <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" s="2">
         <v>24</v>
@@ -12630,13 +12636,13 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4</v>
       </c>
@@ -12644,10 +12650,10 @@
         <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -12683,13 +12689,13 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC124" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>4</v>
       </c>
@@ -12697,13 +12703,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2">
         <v>21</v>
@@ -12770,13 +12776,13 @@
       </c>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC125" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -12784,13 +12790,13 @@
         <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2">
         <v>22</v>
@@ -12857,13 +12863,13 @@
         <v>1.5</v>
       </c>
       <c r="AB126" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC126" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -12871,13 +12877,13 @@
         <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2">
         <v>22</v>
@@ -12946,11 +12952,11 @@
         <v>33</v>
       </c>
       <c r="AB127" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -12958,13 +12964,13 @@
         <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2">
         <v>21</v>
@@ -12997,13 +13003,13 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC128" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -13011,13 +13017,13 @@
         <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2">
         <v>23</v>
@@ -13080,13 +13086,13 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC129" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -13094,13 +13100,13 @@
         <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2">
         <v>21</v>
@@ -13163,13 +13169,13 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC130" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4</v>
       </c>
@@ -13177,13 +13183,13 @@
         <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2">
         <v>21</v>
@@ -13246,13 +13252,13 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC131" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>4</v>
       </c>
@@ -13260,13 +13266,13 @@
         <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F132" s="2">
         <v>22</v>
@@ -13329,11 +13335,11 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>4</v>
       </c>
@@ -13341,13 +13347,13 @@
         <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" s="2">
         <v>23</v>
@@ -13414,13 +13420,13 @@
         <v>34</v>
       </c>
       <c r="AB133" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>4</v>
       </c>
@@ -13428,13 +13434,13 @@
         <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F134" s="2">
         <v>22</v>
@@ -13467,13 +13473,13 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
       <c r="AB134" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC134" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -13481,13 +13487,13 @@
         <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2">
         <v>22</v>
@@ -13550,13 +13556,13 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
       <c r="AB135" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>4</v>
       </c>
@@ -13564,13 +13570,13 @@
         <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F136" s="2">
         <v>22</v>
@@ -13635,13 +13641,13 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
       <c r="AB136" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -13649,13 +13655,13 @@
         <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" s="2">
         <v>22</v>
@@ -13718,13 +13724,13 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC137" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -13732,10 +13738,10 @@
         <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -13801,13 +13807,13 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC138" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -13815,13 +13821,13 @@
         <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F139" s="2">
         <v>23</v>
@@ -13882,13 +13888,13 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
       <c r="AB139" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC139" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>4</v>
       </c>
@@ -13896,13 +13902,13 @@
         <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2">
         <v>23</v>
@@ -13967,13 +13973,13 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
       <c r="AB140" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC140" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>4</v>
       </c>
@@ -13981,13 +13987,13 @@
         <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F141" s="2">
         <v>23</v>
@@ -14052,13 +14058,13 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
       <c r="AB141" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC141" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>4</v>
       </c>
@@ -14066,13 +14072,13 @@
         <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" s="2">
         <v>22</v>
@@ -14137,13 +14143,13 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
       <c r="AB142" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC142" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>4</v>
       </c>
@@ -14151,13 +14157,13 @@
         <v>141</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F143" s="2">
         <v>22</v>
@@ -14222,13 +14228,13 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
       <c r="AB143" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC143" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>4</v>
       </c>
@@ -14236,13 +14242,13 @@
         <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2">
         <v>23</v>
@@ -14311,13 +14317,13 @@
         <v>6</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC144" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>4</v>
       </c>
@@ -14325,13 +14331,13 @@
         <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" s="2">
         <v>21</v>
@@ -14394,13 +14400,13 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC145" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>4</v>
       </c>
@@ -14408,13 +14414,13 @@
         <v>144</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F146" s="2">
         <v>23</v>
@@ -14481,11 +14487,11 @@
         <v>12.5</v>
       </c>
       <c r="AB146" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -14493,13 +14499,13 @@
         <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2">
         <v>22</v>
@@ -14564,13 +14570,13 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC147" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -14578,13 +14584,13 @@
         <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F148" s="2">
         <v>23</v>
@@ -14649,13 +14655,13 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
       <c r="AB148" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC148" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -14663,10 +14669,10 @@
         <v>147</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>17</v>
@@ -14702,11 +14708,11 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
       <c r="AB149" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -14714,13 +14720,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2">
         <v>23</v>
@@ -14787,13 +14793,13 @@
         <v>0.5</v>
       </c>
       <c r="AB150" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -14801,13 +14807,13 @@
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F151" s="2">
         <v>24</v>
@@ -14874,13 +14880,13 @@
       </c>
       <c r="AA151" s="2"/>
       <c r="AB151" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC151" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -14888,13 +14894,13 @@
         <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F152" s="2">
         <v>22</v>
@@ -14957,13 +14963,13 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>5</v>
       </c>
@@ -14971,13 +14977,13 @@
         <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F153" s="2">
         <v>22</v>
@@ -15046,13 +15052,13 @@
         <v>9.5</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC153" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>5</v>
       </c>
@@ -15060,13 +15066,13 @@
         <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F154" s="2">
         <v>22</v>
@@ -15131,13 +15137,13 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
       <c r="AB154" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC154" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>5</v>
       </c>
@@ -15145,13 +15151,13 @@
         <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="F155" s="2">
         <v>22</v>
@@ -15214,13 +15220,13 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
       <c r="AB155" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AC155" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -15228,13 +15234,13 @@
         <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2">
         <v>23</v>
@@ -15299,13 +15305,13 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC156" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>5</v>
       </c>
@@ -15313,13 +15319,13 @@
         <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F157" s="2">
         <v>22</v>
@@ -15388,13 +15394,13 @@
         <v>9.5</v>
       </c>
       <c r="AB157" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -15402,13 +15408,13 @@
         <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158" s="2">
         <v>21</v>
@@ -15473,13 +15479,13 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
       <c r="AB158" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC158" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5</v>
       </c>
@@ -15487,13 +15493,13 @@
         <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2">
         <v>23</v>
@@ -15556,13 +15562,13 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
       <c r="AB159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>5</v>
       </c>
@@ -15570,13 +15576,13 @@
         <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F160" s="2">
         <v>23</v>
@@ -15645,13 +15651,13 @@
         <v>2</v>
       </c>
       <c r="AB160" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC160" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>5</v>
       </c>
@@ -15659,10 +15665,10 @@
         <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>17</v>
@@ -15728,13 +15734,13 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
       <c r="AB161" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC161" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -15742,13 +15748,13 @@
         <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F162" s="2">
         <v>21</v>
@@ -15809,13 +15815,13 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
       <c r="AB162" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -15823,13 +15829,13 @@
         <v>161</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F163" s="2">
         <v>22</v>
@@ -15898,13 +15904,13 @@
         <v>5.5</v>
       </c>
       <c r="AB163" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -15912,13 +15918,13 @@
         <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F164" s="2">
         <v>21</v>
@@ -15981,13 +15987,13 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC164" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>5</v>
       </c>
@@ -15995,13 +16001,13 @@
         <v>163</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2">
         <v>23</v>
@@ -16070,13 +16076,13 @@
         <v>10.5</v>
       </c>
       <c r="AB165" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -16084,10 +16090,10 @@
         <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>17</v>
@@ -16153,13 +16159,13 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
       <c r="AB166" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC166" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>5</v>
       </c>
@@ -16167,13 +16173,13 @@
         <v>165</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2">
         <v>22</v>
@@ -16238,11 +16244,11 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
       <c r="AB167" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>5</v>
       </c>
@@ -16250,13 +16256,13 @@
         <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F168" s="2">
         <v>23</v>
@@ -16321,13 +16327,13 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
       <c r="AB168" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC168" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -16335,13 +16341,13 @@
         <v>167</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F169" s="2">
         <v>22</v>
@@ -16406,11 +16412,11 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
       <c r="AB169" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -16418,13 +16424,13 @@
         <v>168</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F170" s="2">
         <v>21</v>
@@ -16489,13 +16495,13 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
       <c r="AB170" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC170" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -16503,13 +16509,13 @@
         <v>169</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F171" s="2">
         <v>24</v>
@@ -16574,13 +16580,13 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
       <c r="AB171" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC171" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -16588,13 +16594,13 @@
         <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F172" s="2">
         <v>22</v>
@@ -16655,13 +16661,13 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
       <c r="AB172" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC172" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>5</v>
       </c>
@@ -16669,13 +16675,13 @@
         <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173" s="2">
         <v>23</v>
@@ -16738,13 +16744,13 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
       <c r="AB173" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC173" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -16752,13 +16758,13 @@
         <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F174" s="2">
         <v>22</v>
@@ -16823,13 +16829,13 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
       <c r="AB174" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC174" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>5</v>
       </c>
@@ -16837,13 +16843,13 @@
         <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F175" s="2">
         <v>23</v>
@@ -16908,13 +16914,13 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC175" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -16922,13 +16928,13 @@
         <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F176" s="2">
         <v>23</v>
@@ -16993,11 +16999,11 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
       <c r="AB176" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -17005,13 +17011,13 @@
         <v>175</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F177" s="2">
         <v>22</v>
@@ -17044,13 +17050,13 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
       <c r="AB177" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>5</v>
       </c>
@@ -17058,13 +17064,13 @@
         <v>176</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F178" s="2">
         <v>23</v>
@@ -17097,13 +17103,13 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC178" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>5</v>
       </c>
@@ -17111,13 +17117,13 @@
         <v>177</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F179" s="2">
         <v>23</v>
@@ -17180,13 +17186,13 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC179" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>5</v>
       </c>
@@ -17194,13 +17200,13 @@
         <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F180" s="2">
         <v>22</v>
@@ -17267,13 +17273,13 @@
         <v>5.5</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC180" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -17281,13 +17287,13 @@
         <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F181" s="2">
         <v>23</v>
@@ -17352,13 +17358,13 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC181" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>5</v>
       </c>
@@ -17366,10 +17372,10 @@
         <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>17</v>
@@ -17435,13 +17441,13 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AB182" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC182" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -17449,13 +17455,13 @@
         <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F183" s="2">
         <v>25</v>
@@ -17520,11 +17526,11 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
       <c r="AB183" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -17532,13 +17538,13 @@
         <v>182</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184" s="2">
         <v>22</v>
@@ -17601,13 +17607,13 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
       <c r="AB184" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC184" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -17615,13 +17621,13 @@
         <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F185" s="2">
         <v>23</v>
@@ -17688,13 +17694,13 @@
         <v>1</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AC185" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>5</v>
       </c>
@@ -17702,13 +17708,13 @@
         <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F186" s="2">
         <v>22</v>
@@ -17777,13 +17783,13 @@
         <v>3.5</v>
       </c>
       <c r="AB186" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC186" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -17791,13 +17797,13 @@
         <v>185</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F187" s="2">
         <v>23</v>
@@ -17864,13 +17870,13 @@
         <v>2</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC187" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -17878,13 +17884,13 @@
         <v>186</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F188" s="2">
         <v>22</v>
@@ -17953,13 +17959,13 @@
         <v>4.5</v>
       </c>
       <c r="AB188" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC188" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>6</v>
       </c>
@@ -17967,13 +17973,13 @@
         <v>187</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F189" s="2">
         <v>24</v>
@@ -18036,13 +18042,13 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AC189" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>6</v>
       </c>
@@ -18050,13 +18056,13 @@
         <v>188</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F190" s="2">
         <v>23</v>
@@ -18119,13 +18125,13 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AB190" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC190" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -18133,13 +18139,13 @@
         <v>189</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F191" s="2">
         <v>22</v>
@@ -18204,13 +18210,13 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
       <c r="AB191" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC191" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>6</v>
       </c>
@@ -18218,13 +18224,13 @@
         <v>190</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F192" s="2">
         <v>22</v>
@@ -18287,13 +18293,13 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC192" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -18301,13 +18307,13 @@
         <v>191</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F193" s="2">
         <v>22</v>
@@ -18376,13 +18382,13 @@
         <v>1</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC193" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>6</v>
       </c>
@@ -18390,13 +18396,13 @@
         <v>192</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="F194" s="2">
         <v>23</v>
@@ -18461,11 +18467,11 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
       <c r="AB194" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC194" s="2"/>
     </row>
-    <row r="195" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>6</v>
       </c>
@@ -18473,13 +18479,13 @@
         <v>193</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F195" s="2">
         <v>22</v>
@@ -18548,13 +18554,13 @@
         <v>3.5</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC195" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>6</v>
       </c>
@@ -18562,13 +18568,13 @@
         <v>194</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F196" s="2">
         <v>23</v>
@@ -18635,13 +18641,13 @@
         <v>2</v>
       </c>
       <c r="AB196" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC196" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -18649,13 +18655,13 @@
         <v>195</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F197" s="2">
         <v>22</v>
@@ -18722,13 +18728,13 @@
         <v>2.5</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC197" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>6</v>
       </c>
@@ -18736,13 +18742,13 @@
         <v>196</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F198" s="2">
         <v>22</v>
@@ -18809,13 +18815,13 @@
         <v>15</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC198" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>6</v>
       </c>
@@ -18823,13 +18829,13 @@
         <v>197</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F199" s="2">
         <v>23</v>
@@ -18892,13 +18898,13 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
       <c r="AB199" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC199" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>6</v>
       </c>
@@ -18906,13 +18912,13 @@
         <v>198</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F200" s="2">
         <v>22</v>
@@ -18979,13 +18985,13 @@
         <v>12</v>
       </c>
       <c r="AB200" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC200" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -18993,13 +18999,13 @@
         <v>199</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F201" s="2">
         <v>24</v>
@@ -19062,13 +19068,13 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
       <c r="AB201" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC201" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>6</v>
       </c>
@@ -19076,13 +19082,13 @@
         <v>200</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F202" s="2">
         <v>23</v>
@@ -19145,13 +19151,13 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
       <c r="AB202" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC202" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>6</v>
       </c>
@@ -19159,13 +19165,13 @@
         <v>201</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F203" s="2">
         <v>22</v>
@@ -19198,13 +19204,13 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
       <c r="AB203" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC203" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -19212,13 +19218,13 @@
         <v>202</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F204" s="2">
         <v>23</v>
@@ -19283,13 +19289,13 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
       <c r="AB204" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC204" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -19297,13 +19303,13 @@
         <v>203</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F205" s="2">
         <v>24</v>
@@ -19368,11 +19374,11 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
       <c r="AB205" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -19380,13 +19386,13 @@
         <v>204</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F206" s="2">
         <v>22</v>
@@ -19451,13 +19457,13 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
       <c r="AB206" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC206" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -19465,13 +19471,13 @@
         <v>205</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F207" s="2">
         <v>23</v>
@@ -19538,13 +19544,13 @@
         <v>3.5</v>
       </c>
       <c r="AB207" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC207" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -19552,13 +19558,13 @@
         <v>206</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F208" s="2">
         <v>22</v>
@@ -19591,13 +19597,13 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AB208" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC208" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="209" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -19605,13 +19611,13 @@
         <v>207</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209" s="2">
         <v>23</v>
@@ -19676,13 +19682,13 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
       <c r="AB209" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC209" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -19690,13 +19696,13 @@
         <v>208</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F210" s="2">
         <v>22</v>
@@ -19765,13 +19771,13 @@
         <v>0.5</v>
       </c>
       <c r="AB210" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC210" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -19779,13 +19785,13 @@
         <v>209</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F211" s="2">
         <v>22</v>
@@ -19850,13 +19856,13 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
       <c r="AB211" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC211" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -19864,13 +19870,13 @@
         <v>210</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F212" s="2">
         <v>23</v>
@@ -19903,13 +19909,13 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
       <c r="AB212" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC212" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -19917,13 +19923,13 @@
         <v>211</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F213" s="2">
         <v>24</v>
@@ -19986,13 +19992,13 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
       <c r="AB213" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC213" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -20000,13 +20006,13 @@
         <v>212</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F214" s="2">
         <v>23</v>
@@ -20039,13 +20045,13 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
       <c r="AB214" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC214" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -20053,13 +20059,13 @@
         <v>213</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="F215" s="2">
         <v>23</v>
@@ -20120,13 +20126,13 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
       <c r="AB215" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC215" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -20134,13 +20140,13 @@
         <v>214</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F216" s="2">
         <v>22</v>
@@ -20205,13 +20211,13 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
       <c r="AB216" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC216" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -20219,13 +20225,13 @@
         <v>215</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F217" s="2">
         <v>22</v>
@@ -20258,13 +20264,13 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
       <c r="AB217" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC217" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -20272,13 +20278,13 @@
         <v>216</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F218" s="2">
         <v>22</v>
@@ -20311,13 +20317,13 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
       <c r="AB218" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC218" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -20325,13 +20331,13 @@
         <v>217</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="F219" s="2">
         <v>23</v>
@@ -20396,11 +20402,11 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC219" s="2"/>
     </row>
-    <row r="220" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -20408,13 +20414,13 @@
         <v>218</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F220" s="2">
         <v>22</v>
@@ -20479,13 +20485,13 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
       <c r="AB220" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC220" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -20493,13 +20499,13 @@
         <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F221" s="2">
         <v>23</v>
@@ -20562,13 +20568,13 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
       <c r="AB221" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC221" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -20576,13 +20582,13 @@
         <v>220</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F222" s="2">
         <v>23</v>
@@ -20649,13 +20655,13 @@
         <v>14</v>
       </c>
       <c r="AB222" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC222" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -20663,13 +20669,13 @@
         <v>221</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F223" s="2">
         <v>23</v>
@@ -20734,13 +20740,13 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
       <c r="AB223" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC223" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -20748,13 +20754,13 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F224" s="2">
         <v>22</v>
@@ -20817,13 +20823,13 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
       <c r="AB224" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC224" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -20831,13 +20837,13 @@
         <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="F225" s="2">
         <v>26</v>
@@ -20870,13 +20876,13 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
       <c r="AB225" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC225" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -20884,13 +20890,13 @@
         <v>224</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F226" s="2">
         <v>22</v>
@@ -20955,13 +20961,13 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
       <c r="AB226" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AC226" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -20969,13 +20975,13 @@
         <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F227" s="2">
         <v>22</v>
@@ -21044,13 +21050,13 @@
         <v>9.5</v>
       </c>
       <c r="AB227" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC227" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -21058,13 +21064,13 @@
         <v>226</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F228" s="2">
         <v>22</v>
@@ -21129,11 +21135,11 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
       <c r="AB228" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC228" s="2"/>
     </row>
-    <row r="229" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -21141,13 +21147,13 @@
         <v>227</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F229" s="2">
         <v>23</v>
@@ -21210,13 +21216,13 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
       <c r="AB229" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AC229" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -21224,13 +21230,13 @@
         <v>228</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F230" s="2">
         <v>22</v>
@@ -21291,13 +21297,13 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
       <c r="AB230" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC230" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -21305,13 +21311,13 @@
         <v>229</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F231" s="2">
         <v>23</v>
@@ -21376,13 +21382,13 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
       <c r="AB231" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC231" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -21390,13 +21396,13 @@
         <v>230</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F232" s="2">
         <v>23</v>
@@ -21463,13 +21469,13 @@
         <v>1.5</v>
       </c>
       <c r="AB232" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC232" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -21477,13 +21483,13 @@
         <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F233" s="2">
         <v>23</v>
@@ -21546,11 +21552,11 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
       <c r="AB233" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC233" s="2"/>
     </row>
-    <row r="234" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -21558,13 +21564,13 @@
         <v>232</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F234" s="2">
         <v>21</v>
@@ -21629,13 +21635,13 @@
         <v>1</v>
       </c>
       <c r="AB234" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC234" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -21643,13 +21649,13 @@
         <v>233</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F235" s="2">
         <v>22</v>
@@ -21712,13 +21718,13 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
       <c r="AB235" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC235" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -21726,13 +21732,13 @@
         <v>234</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F236" s="2">
         <v>24</v>
@@ -21795,13 +21801,13 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
       <c r="AB236" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC236" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -21809,13 +21815,13 @@
         <v>235</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F237" s="2">
         <v>23</v>
@@ -21880,13 +21886,13 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
       <c r="AB237" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC237" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -21894,13 +21900,13 @@
         <v>236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F238" s="2">
         <v>23</v>
@@ -21933,11 +21939,11 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
       <c r="AB238" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC238" s="2"/>
     </row>
-    <row r="239" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -21945,13 +21951,13 @@
         <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F239" s="2">
         <v>21</v>
@@ -22016,13 +22022,13 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
       <c r="AB239" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC239" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -22030,13 +22036,13 @@
         <v>238</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F240" s="2">
         <v>23</v>
@@ -22099,13 +22105,13 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
       <c r="AB240" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AC240" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="241" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -22113,13 +22119,13 @@
         <v>239</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F241" s="2">
         <v>21</v>
@@ -22184,13 +22190,13 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
       <c r="AB241" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC241" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="242" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -22198,13 +22204,13 @@
         <v>240</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F242" s="2">
         <v>23</v>
@@ -22265,13 +22271,13 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
       <c r="AB242" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC242" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="243" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -22279,13 +22285,13 @@
         <v>241</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F243" s="2">
         <v>22</v>
@@ -22318,13 +22324,13 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
       <c r="AB243" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC243" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="244" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -22332,13 +22338,13 @@
         <v>242</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F244" s="2">
         <v>21</v>
@@ -22401,13 +22407,13 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
       <c r="AB244" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC244" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="245" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -22415,13 +22421,13 @@
         <v>243</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F245" s="2">
         <v>23</v>
@@ -22484,13 +22490,13 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
       <c r="AB245" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC245" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -22498,13 +22504,13 @@
         <v>244</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F246" s="2">
         <v>24</v>
@@ -22571,13 +22577,13 @@
         <v>2</v>
       </c>
       <c r="AB246" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC246" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -22585,13 +22591,13 @@
         <v>245</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F247" s="2">
         <v>21</v>
@@ -22624,13 +22630,13 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
       <c r="AB247" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC247" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>7</v>
       </c>
@@ -22638,13 +22644,13 @@
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F248" s="2">
         <v>23</v>
@@ -22677,13 +22683,13 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
       <c r="AB248" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC248" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>7</v>
       </c>
@@ -22691,13 +22697,13 @@
         <v>247</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F249" s="2">
         <v>21</v>
@@ -22758,13 +22764,13 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
       <c r="AB249" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC249" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -22772,13 +22778,13 @@
         <v>248</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F250" s="2">
         <v>22</v>
@@ -22811,13 +22817,13 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
       <c r="AB250" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC250" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>7</v>
       </c>
@@ -22825,13 +22831,13 @@
         <v>249</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F251" s="2">
         <v>22</v>
@@ -22894,13 +22900,13 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
       <c r="AB251" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC251" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>7</v>
       </c>
@@ -22908,13 +22914,13 @@
         <v>250</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F252" s="2">
         <v>23</v>
@@ -22981,13 +22987,13 @@
         <v>2.5</v>
       </c>
       <c r="AB252" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AC252" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>7</v>
       </c>
@@ -22995,13 +23001,13 @@
         <v>251</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F253" s="2">
         <v>23</v>
@@ -23066,13 +23072,13 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
       <c r="AB253" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC253" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>7</v>
       </c>
@@ -23080,13 +23086,13 @@
         <v>252</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F254" s="2">
         <v>23</v>
@@ -23151,13 +23157,13 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
       <c r="AB254" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC254" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="255" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>7</v>
       </c>
@@ -23165,13 +23171,13 @@
         <v>253</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F255" s="2">
         <v>23</v>
@@ -23234,10 +23240,10 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
       <c r="AB255" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC255" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
